--- a/docs/PST1/PST1_15.08.2024_output.xlsx
+++ b/docs/PST1/PST1_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1202 +505,1425 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731082879.9317393</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731082880.1074572</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082879.9317393.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082880.1074572.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.43</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731082880.122822</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731082882.15727</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082880.122822.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082882.15727.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.26</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8400000000000318</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731082882.1737998</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731082884.063473</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082882.1737998.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082884.063473.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.26</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.07</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731082884.687721</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731082885.7064157</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082884.687721.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082885.7064157.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.07</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.11</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.04000000000002046</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731082885.793855</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731082886.0291958</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082885.793855.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731082886.0291958.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.18</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.97</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.7900000000000205</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731082888.857411</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731082888.857411.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731082888.857411.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.57</v>
       </c>
-      <c r="J8" t="n">
-        <v>277.57</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>277.13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731082897.506415</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731082897.6690495</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082897.506415.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082897.6690495.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.43</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731082897.6836855</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731082899.6291032</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082897.6836855.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082899.6291032.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.8400000000000318</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731082899.6436694</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731082901.3493466</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082899.6436694.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082901.3493466.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.26</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.07</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731082901.9437966</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731082902.928125</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082901.9437966.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082902.928125.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>277.07</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.11</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.04000000000002046</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731082903.0149806</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731082903.2448452</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082903.0149806.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082903.2448452.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.18</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.97</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.7900000000000205</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731082905.9482844</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731082910.465589</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082905.9482844.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082910.465589.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.57</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.91</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.340000000000032</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731082910.469941</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731082913.5615644</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082910.469941.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082913.5615644.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.91</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.53</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6199999999999477</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731082915.0513172</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731082915.3836849</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082915.0513172.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082915.3836849.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>279.13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.46</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6700000000000159</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731082915.9300804</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731082916.1843824</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082915.9300804.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082916.1843824.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.73</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>278</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.7300000000000182</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731082917.2553499</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731082918.222931</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082917.2553499.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082918.222931.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.91</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>277.83</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.08000000000004093</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731082919.9846566</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731082920.7084317</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082919.9846566.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731082920.7084317.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>278.06</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>277.7</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731082927.075025</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731082927.4310124</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082927.075025.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082927.4310124.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.08</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731082929.061415</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731082929.650268</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082929.061415.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082929.650268.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.56</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.24</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731082931.0825982</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731082931.439606</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082931.0825982.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082931.439606.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731082934.2483141</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731082935.515088</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082934.2483141.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082935.515088.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>128.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>128.56</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731082935.5316503</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731082936.465021</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082935.5316503.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082936.465021.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>128.56</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>128.47</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731082939.4647326</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731082940.23149</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082939.4647326.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731082940.23149.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.28</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>127.85</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4300000000000068</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731082944.9709165</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731082944.9709165.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731082944.9709165.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.34</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>127.34</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1693,1273 +1931,1507 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731082947.1799066</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731082952.5991004</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082947.1799066.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082952.5991004.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6399</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6373</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>26</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731082952.6140308</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731082955.0072126</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082952.6140308.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082955.0072126.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6373</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6360</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-13</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731082955.02187</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731082956.9270895</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082955.02187.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082956.9270895.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6360</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6357</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731082958.3032892</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731082961.3488793</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082958.3032892.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731082961.3488793.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6340</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6344.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731082963.399062</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731082964.164768</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082963.399062.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082964.164768.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>495</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>494.9</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731082965.5483606</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731082965.6171815</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082965.5483606.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082965.6171815.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>495.95</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>498</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2.050000000000011</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731082967.3674595</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731082968.9170718</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082967.3674595.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082968.9170718.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>497.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>497.05</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731082968.9315486</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731082969.2160757</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082968.9315486.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082969.2160757.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>497.05</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>495.35</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.699999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731082973.7325873</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731082974.6842356</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082973.7325873.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082974.6842356.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>495</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>494.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731082975.366825</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731082975.8999872</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082975.366825.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082975.8999872.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>495.95</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>494.75</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.199999999999989</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731082977.900182</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731082980.5007277</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082977.900182.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082980.5007277.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>495.35</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>495.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731082980.5175524</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731082981.3395998</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082980.5175524.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731082981.3395998.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>495.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>495.45</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731082983.0329328</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731082983.5149224</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082983.0329328.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082983.5149224.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>222.58</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>222.08</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731082984.2672725</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731082985.5500195</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082984.2672725.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082985.5500195.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>222.55</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>222.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.04999999999998295</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731082986.9820876</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731082988.5014253</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082986.9820876.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082988.5014253.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>223.93</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>223.46</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731082988.518075</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731082989.316772</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082988.518075.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082989.316772.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>223.46</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>223.33</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731082990.216891</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731082991.4319718</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082990.216891.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082991.4319718.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>223.43</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>223.91</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731082994.3980286</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731082995.3640769</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082994.3980286.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082995.3640769.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>224.12</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>224.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731082996.005055</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731082996.6479962</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082996.005055.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082996.6479962.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>224.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>224.39</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731082999.0813568</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731083000.4247217</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731082999.0813568.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731083000.4247217.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>224.73</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>224.64</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731083001.5081255</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731083002.131272</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083001.5081255.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083002.131272.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1033.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1027.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>6</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731083003.0591035</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731083004.0823455</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083003.0591035.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083004.0823455.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1033.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1037</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-3.599999999999909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731083005.119672</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731083008.7706602</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083005.119672.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083008.7706602.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1041.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1036.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731083008.7863452</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731083010.4156823</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083008.7863452.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083010.4156823.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1036.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1039.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731083011.0853415</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731083013.3996668</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083011.0853415.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083013.3996668.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1035.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.399999999999864</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731083013.415341</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731083014.2059863</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083013.415341.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083014.2059863.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1034.4</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2967,1298 +3439,1541 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731083014.4913511</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731083015.8191483</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083014.4913511.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731083015.8191483.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1035.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731083020.5187473</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731083020.6022272</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083020.5187473.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083020.6022272.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.958</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>11.972</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.01399999999999935</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731083020.8988905</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731083021.493087</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083020.8988905.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083021.493087.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.975</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>11.984</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731083029.428022</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731083030.9138556</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083029.428022.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083030.9138556.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>12.08</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12.057</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.02299999999999969</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731083034.9695117</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731083035.0163755</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083034.9695117.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731083035.0163755.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>12.041</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>12.039</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731083036.3966138</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731083036.3966138.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731083036.3966138.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>12.047</v>
       </c>
-      <c r="J58" t="n">
-        <v>12.047</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>12.052</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.004999999999999005</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731083044.5027838</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731083046.7402701</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083044.5027838.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083046.7402701.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>125.1</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>125.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731083046.755891</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731083047.012136</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083046.755891.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083047.012136.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>125.2</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>125.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.3999999999999915</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731083048.2887523</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731083052.7996094</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083048.2887523.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731083052.7996094.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>125.36</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>125.06</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731083053.7751915</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731083054.2731755</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083053.7751915.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083054.2731755.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>163.12</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>162.82</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731083054.2887964</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731083056.9448948</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083054.2887964.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083056.9448948.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>162.82</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>164.3</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.480000000000018</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731083057.451519</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731083059.3215036</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083057.451519.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731083059.3215036.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>164.5</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>163.86</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.6399999999999864</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731083072.195032</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731083072.5728564</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083072.195032.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083072.5728564.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>49.57</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>49.95</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.3800000000000026</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731083073.0475688</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731083075.2175941</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083073.0475688.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083075.2175941.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>50.01</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49.99</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731083075.2332146</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731083076.4921536</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083075.2332146.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083076.4921536.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.99</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.835</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1550000000000011</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731083077.7620451</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731083078.9839098</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083077.7620451.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083078.9839098.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.82</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>49.765</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731083079.731853</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731083080.6945593</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083079.731853.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083080.6945593.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.72</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>49.805</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731083080.710179</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731083082.1626508</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083080.710179.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731083082.1626508.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>49.805</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>49.715</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731083088.8797781</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731083091.9438324</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083088.8797781.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083091.9438324.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1400</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>13.20000000000005</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731083092.9745696</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731083093.8495238</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083092.9745696.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083093.8495238.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1395.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1396.4</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731083094.8547645</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731083096.0967135</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083094.8547645.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083096.0967135.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1392.6</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1396.8</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731083097.330734</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731083101.006226</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083097.330734.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731083101.006226.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1393.4</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1394.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1.199999999999818</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731083101.0225422</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731083101.0225422.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731083101.0225422.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1394.6</v>
       </c>
-      <c r="J75" t="n">
-        <v>1394.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>1386.4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-8.199999999999818</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731083112.524376</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731083113.4983237</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083112.524376.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083113.4983237.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>58.78</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>58.71</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731083113.513918</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731083119.6476011</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083113.513918.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083119.6476011.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>58.71</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>58.94</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731083121.2431717</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731083122.063943</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083121.2431717.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731083122.063943.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>58.87</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>59.01</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731083122.5846279</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731083122.5846279.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731083122.5846279.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>59</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>59</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4266,1340 +4981,1592 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731083123.8220356</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731083128.6608865</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083123.8220356.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083128.6608865.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>99.72</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>99.23999999999999</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731083128.6921022</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731083136.311078</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083128.6921022.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731083136.311078.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>99.23999999999999</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1600000000000108</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731083136.326697</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731083136.326697.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731083136.326697.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="J82" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
+      <c r="L82" t="n">
+        <v>99.44</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731083141.256797</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731083144.9904668</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083141.256797.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083144.9904668.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>55.86</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>55.95</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731083146.2555</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731083149.5927715</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083146.2555.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731083149.5927715.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>55.81</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>55.66</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731083154.6956937</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731083154.6956937.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731083154.6956937.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>55.49</v>
       </c>
-      <c r="J85" t="n">
-        <v>55.49</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731083155.8711615</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731083156.3082335</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083155.8711615.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083156.3082335.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>155.58</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>154.88</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.7000000000000171</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731083157.1634893</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731083161.495119</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083157.1634893.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083161.495119.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>156.88</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>156.24</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731083161.510711</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731083164.4983964</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083161.510711.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083164.4983964.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>156.24</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>154.84</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-1.400000000000006</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731083164.5140185</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731083165.037768</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083164.5140185.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083165.037768.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>154.84</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>155</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731083165.1311307</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731083166.1308837</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083165.1311307.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083166.1308837.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>154.98</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>154.86</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1199999999999761</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731083169.5700722</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731083169.9289553</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083169.5700722.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083169.9289553.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>154.74</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>154.58</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731083170.2771745</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731083171.7569096</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083170.2771745.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731083171.7569096.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>154.58</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>154.22</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731083173.5431607</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731083178.3185894</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731083173.5431607.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731083178.3185894.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.3048</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.3033</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.001500000000000001</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731083178.3342104</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731083183.5241077</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731083178.3342104.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731083183.5241077.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.3033</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.3066</v>
       </c>
-      <c r="K94" t="n">
-        <v>0.003300000000000025</v>
+      <c r="M94" t="n">
+        <v>0.00329999999999997</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731083183.5397277</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731083183.5397277.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731083183.5397277.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.3066</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.3066</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
+      <c r="L95" t="n">
+        <v>0.3061</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0005000000000000004</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731083186.913793</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731083189.7720027</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083186.913793.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083189.7720027.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.898</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.97</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.07199999999999918</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731083193.3419352</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731083194.8530562</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083193.3419352.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083194.8530562.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.9</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.919</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.0190000000000019</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731083194.8682413</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731083195.221053</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083194.8682413.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083195.221053.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.919</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.866</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.05300000000000082</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731083195.2382493</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731083197.678126</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083195.2382493.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083197.678126.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.866</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.905</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.03900000000000148</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731083197.6932046</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731083198.7682495</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083197.6932046.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083198.7682495.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>19.905</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>19.856</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.04899999999999949</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731083199.5481446</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731083203.154978</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083199.5481446.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083203.154978.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>19.892</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>19.862</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731083204.4336627</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731083205.0032718</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083204.4336627.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731083205.0032718.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>19.855</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>19.801</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.05400000000000205</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731083206.350483</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731083208.4391897</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083206.350483.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083208.4391897.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>681.15</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>683</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>1.850000000000023</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731083208.4548457</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731083210.4750457</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083208.4548457.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083210.4750457.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>683</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>681.45</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>1.549999999999955</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731083210.4906678</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731083221.8038955</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083210.4906678.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731083221.8038955.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>681.45</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>680.15</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-1.300000000000068</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731083223.7871592</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731083225.082345</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083223.7871592.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731083225.082345.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>150.68</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>151.34</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731083227.6621065</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731083227.6621065.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731083227.6621065.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>151.1</v>
       </c>
-      <c r="J107" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
+      <c r="L107" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +6580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,6 +6604,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5650,6 +6632,15 @@
       <c r="C2" t="n">
         <v>11</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1281818181818256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5663,6 +6654,15 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.2062500000000007</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5676,6 +6676,15 @@
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.2124999999999986</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5689,6 +6698,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.02457142857142967</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5702,6 +6720,15 @@
       <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.342857142857156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5715,6 +6742,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.1400000000000066</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5728,6 +6764,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5741,6 +6786,15 @@
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.06583333333333503</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5749,11 +6803,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.150000000000091</v>
+        <v>-1.590000000000089</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.2650000000000148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5762,11 +6825,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04399999999999871</v>
+        <v>-0.04899999999999771</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.009799999999999542</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5775,11 +6847,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.40000000000032</v>
+        <v>9.2000000000005</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>1.8400000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5793,6 +6874,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5806,6 +6896,15 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5819,6 +6918,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>4.736951571734001e-15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5827,11 +6935,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6400000000000148</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.2000000000000076</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5845,6 +6962,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.3800000000000144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5853,11 +6979,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1500000000000057</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.0500000000000019</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5871,6 +7006,15 @@
       <c r="C19" t="n">
         <v>3</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.6999999999999696</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5879,11 +7023,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004800000000000026</v>
+        <v>0.005299999999999971</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.001766666666666657</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5892,11 +7045,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6599999999999966</v>
+        <v>-1.060000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.5300000000000011</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5910,6 +7072,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
